--- a/매입매출 프로젝트/하나마트-테이블 명세.xlsx
+++ b/매입매출 프로젝트/하나마트-테이블 명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오라클형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inqu0302</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,22 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래처원장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,14 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -363,14 +335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가변문자열</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,6 +348,58 @@
   </si>
   <si>
     <t>tbl_product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -777,6 +793,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -805,9 +824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1171,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1811,22 +1827,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28">
+      <c r="I2" s="27"/>
+      <c r="J2" s="29">
         <v>44322</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1836,20 +1852,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -1858,18 +1874,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1885,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1911,20 +1927,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1936,19 +1952,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1961,19 +1977,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1986,19 +2002,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2011,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -2036,19 +2052,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -2061,19 +2077,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -2086,19 +2102,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2111,16 +2127,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2254,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2911,22 +2927,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28">
+      <c r="I2" s="27"/>
+      <c r="J2" s="29">
         <v>44322</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2936,20 +2952,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2958,18 +2974,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2985,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -3011,20 +3027,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3036,19 +3052,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3061,19 +3077,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3086,16 +3102,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3109,16 +3125,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3294,12 +3310,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3312,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3969,22 +3985,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28">
+      <c r="I2" s="27"/>
+      <c r="J2" s="29">
         <v>44322</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3994,20 +4010,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -4016,18 +4032,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4043,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4069,20 +4085,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4094,19 +4110,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -4119,19 +4135,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -4144,19 +4160,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4169,19 +4185,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -4356,12 +4372,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
